--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1466117581641418</v>
+        <v>0.1417620482754679</v>
       </c>
       <c r="C2">
-        <v>0.6099084652336085</v>
+        <v>0.5996277706543274</v>
       </c>
       <c r="D2">
-        <v>0.8333976442214792</v>
+        <v>0.8169135268031753</v>
       </c>
       <c r="E2">
-        <v>0.9129061530198377</v>
+        <v>0.9038326873947276</v>
       </c>
       <c r="F2">
-        <v>0.9103940217574914</v>
+        <v>0.9017087228643812</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09876261731825697</v>
+        <v>0.09584318641535604</v>
       </c>
       <c r="C3">
-        <v>0.6702778851784866</v>
+        <v>0.657502611948801</v>
       </c>
       <c r="D3">
-        <v>1.060898187722772</v>
+        <v>1.03928723612716</v>
       </c>
       <c r="E3">
-        <v>1.029999120253397</v>
+        <v>1.019454381582207</v>
       </c>
       <c r="F3">
-        <v>1.036102746803376</v>
+        <v>1.025456856189602</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1295895784101404</v>
+        <v>0.126342760679196</v>
       </c>
       <c r="C4">
-        <v>0.5832171647338444</v>
+        <v>0.5716138419826224</v>
       </c>
       <c r="D4">
-        <v>0.8156267137980427</v>
+        <v>0.7986488544558821</v>
       </c>
       <c r="E4">
-        <v>0.9031205422301293</v>
+        <v>0.8936715584910835</v>
       </c>
       <c r="F4">
-        <v>0.9034374329696897</v>
+        <v>0.894057751257528</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1356293538824543</v>
+        <v>0.132571133247816</v>
       </c>
       <c r="C5">
-        <v>0.68715583346515</v>
+        <v>0.6727079862838818</v>
       </c>
       <c r="D5">
-        <v>1.20582096756212</v>
+        <v>1.180166600671597</v>
       </c>
       <c r="E5">
-        <v>1.098098796812983</v>
+        <v>1.086354730588309</v>
       </c>
       <c r="F5">
-        <v>1.101731765224057</v>
+        <v>1.089892299018441</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.113513194669322</v>
+        <v>0.1115124553593621</v>
       </c>
       <c r="C6">
-        <v>0.6256658997961471</v>
+        <v>0.6125314060269084</v>
       </c>
       <c r="D6">
-        <v>0.9627326039353218</v>
+        <v>0.941813663750834</v>
       </c>
       <c r="E6">
-        <v>0.9811893822985049</v>
+        <v>0.9704708464198365</v>
       </c>
       <c r="F6">
-        <v>0.9856139196149857</v>
+        <v>0.9746955907510105</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09744058801077082</v>
+        <v>0.0971729415500782</v>
       </c>
       <c r="C7">
-        <v>0.5790472115314894</v>
+        <v>0.5646146643790109</v>
       </c>
       <c r="D7">
-        <v>0.7162083376797606</v>
+        <v>0.6953729178386839</v>
       </c>
       <c r="E7">
-        <v>0.8462909296924791</v>
+        <v>0.8338902312886775</v>
       </c>
       <c r="F7">
-        <v>0.8536969436863246</v>
+        <v>0.8406640857472294</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1459834222715701</v>
+        <v>0.1456103435239261</v>
       </c>
       <c r="C8">
-        <v>0.5896926682582848</v>
+        <v>0.5758738547837706</v>
       </c>
       <c r="D8">
-        <v>0.7348235927329279</v>
+        <v>0.7130976704205472</v>
       </c>
       <c r="E8">
-        <v>0.8572185209927092</v>
+        <v>0.8444511059975865</v>
       </c>
       <c r="F8">
-        <v>0.8582126561969221</v>
+        <v>0.8446993703979081</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04203546213238545</v>
+        <v>-0.01600337040817491</v>
       </c>
       <c r="C9">
-        <v>0.5754668337408737</v>
+        <v>0.5629050319730056</v>
       </c>
       <c r="D9">
-        <v>0.5571765763549098</v>
+        <v>0.5311176513683245</v>
       </c>
       <c r="E9">
-        <v>0.7464426142409809</v>
+        <v>0.7287781907880644</v>
       </c>
       <c r="F9">
-        <v>0.7714153941282867</v>
+        <v>0.7524973840956725</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1243267121497472</v>
+        <v>-0.08801024940629837</v>
       </c>
       <c r="C10">
-        <v>0.4984597204559898</v>
+        <v>0.472497539938865</v>
       </c>
       <c r="D10">
-        <v>0.5148622256071693</v>
+        <v>0.4690803580242086</v>
       </c>
       <c r="E10">
-        <v>0.7175390063314812</v>
+        <v>0.6848944137779257</v>
       </c>
       <c r="F10">
-        <v>0.7495536878935715</v>
+        <v>0.7159566669255664</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08298509261913574</v>
+        <v>0.1420658796491534</v>
       </c>
       <c r="C2">
-        <v>0.2782259881569277</v>
+        <v>0.2963740997880928</v>
       </c>
       <c r="D2">
-        <v>0.1147754943926806</v>
+        <v>0.1213439170623603</v>
       </c>
       <c r="E2">
-        <v>0.3387853219852958</v>
+        <v>0.3483445378678418</v>
       </c>
       <c r="F2">
-        <v>0.3408637854649495</v>
+        <v>0.3310457719767695</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1420658796491534</v>
+        <v>0.1568915331285771</v>
       </c>
       <c r="C3">
-        <v>0.2963740997880928</v>
+        <v>0.2900446020859644</v>
       </c>
       <c r="D3">
-        <v>0.1213439170623603</v>
+        <v>0.1128329969643262</v>
       </c>
       <c r="E3">
-        <v>0.3483445378678418</v>
+        <v>0.3359062323987547</v>
       </c>
       <c r="F3">
-        <v>0.3310457719767695</v>
+        <v>0.3102222847576306</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1568915331285771</v>
+        <v>0.1956053612568337</v>
       </c>
       <c r="C4">
-        <v>0.2900446020859644</v>
+        <v>0.2558683862338031</v>
       </c>
       <c r="D4">
-        <v>0.1128329969643262</v>
+        <v>0.08648424928328589</v>
       </c>
       <c r="E4">
-        <v>0.3359062323987547</v>
+        <v>0.2940820451562555</v>
       </c>
       <c r="F4">
-        <v>0.3102222847576306</v>
+        <v>0.2303151560882531</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1956053612568337</v>
+        <v>0.222511934274951</v>
       </c>
       <c r="C5">
-        <v>0.2558683862338031</v>
+        <v>0.2817985532879059</v>
       </c>
       <c r="D5">
-        <v>0.08648424928328589</v>
+        <v>0.1129743571721927</v>
       </c>
       <c r="E5">
-        <v>0.2940820451562555</v>
+        <v>0.3361165827093223</v>
       </c>
       <c r="F5">
-        <v>0.2303151560882531</v>
+        <v>0.2655451338021729</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.222511934274951</v>
+        <v>0.176450614684246</v>
       </c>
       <c r="C6">
-        <v>0.2817985532879059</v>
+        <v>0.1849112350951672</v>
       </c>
       <c r="D6">
-        <v>0.1129743571721927</v>
+        <v>0.06089664821255769</v>
       </c>
       <c r="E6">
-        <v>0.3361165827093223</v>
+        <v>0.2467724624275523</v>
       </c>
       <c r="F6">
-        <v>0.2655451338021729</v>
+        <v>0.1829810301339271</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.176450614684246</v>
+        <v>0.2112811930113801</v>
       </c>
       <c r="C7">
-        <v>0.1849112350951672</v>
+        <v>0.285830133390834</v>
       </c>
       <c r="D7">
-        <v>0.06089664821255769</v>
+        <v>0.1115765264066959</v>
       </c>
       <c r="E7">
-        <v>0.2467724624275523</v>
+        <v>0.3340307267403643</v>
       </c>
       <c r="F7">
-        <v>0.1829810301339271</v>
+        <v>0.2765848542209762</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2112811930113801</v>
+        <v>0.1601567932497119</v>
       </c>
       <c r="C8">
-        <v>0.285830133390834</v>
+        <v>0.2716627869588349</v>
       </c>
       <c r="D8">
-        <v>0.1115765264066959</v>
+        <v>0.08940684574059213</v>
       </c>
       <c r="E8">
-        <v>0.3340307267403643</v>
+        <v>0.2990097753261457</v>
       </c>
       <c r="F8">
-        <v>0.2765848542209762</v>
+        <v>0.2727320208605046</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3022737061459828</v>
+        <v>0.2627214152773011</v>
       </c>
       <c r="C9">
-        <v>0.3022737061459828</v>
+        <v>0.3235434349789264</v>
       </c>
       <c r="D9">
-        <v>0.1098041141006629</v>
+        <v>0.1669924024756296</v>
       </c>
       <c r="E9">
-        <v>0.3313670383436816</v>
+        <v>0.4086470389904099</v>
       </c>
       <c r="F9">
-        <v>0.1518005297810048</v>
+        <v>0.3380801243818421</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2297780799482224</v>
+        <v>0.07165448440387559</v>
       </c>
       <c r="C10">
-        <v>0.2410916961729521</v>
+        <v>0.1716308632352222</v>
       </c>
       <c r="D10">
-        <v>0.09195223546803079</v>
+        <v>0.0355562541576917</v>
       </c>
       <c r="E10">
-        <v>0.303236270040427</v>
+        <v>0.1885636607559678</v>
       </c>
       <c r="F10">
-        <v>0.2423456295562365</v>
+        <v>0.1950060544653244</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2888921154092369</v>
+        <v>0.08333287966522271</v>
       </c>
       <c r="C11">
-        <v>0.2888921154092369</v>
+        <v>0.2888136092683156</v>
       </c>
       <c r="D11">
-        <v>0.08345865434562384</v>
+        <v>0.1119970241814113</v>
       </c>
       <c r="E11">
-        <v>0.2888921154092369</v>
+        <v>0.3346595646047059</v>
+      </c>
+      <c r="F11">
+        <v>0.3742595451432296</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1420658796491534</v>
+        <v>0.08298509261913574</v>
       </c>
       <c r="C2">
-        <v>0.2963740997880928</v>
+        <v>0.2782259881569277</v>
       </c>
       <c r="D2">
-        <v>0.1213439170623603</v>
+        <v>0.1147754943926806</v>
       </c>
       <c r="E2">
-        <v>0.3483445378678418</v>
+        <v>0.3387853219852958</v>
       </c>
       <c r="F2">
-        <v>0.3310457719767695</v>
+        <v>0.3408637854649495</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1568915331285771</v>
+        <v>0.1420658796491534</v>
       </c>
       <c r="C3">
-        <v>0.2900446020859644</v>
+        <v>0.2963740997880928</v>
       </c>
       <c r="D3">
-        <v>0.1128329969643262</v>
+        <v>0.1213439170623603</v>
       </c>
       <c r="E3">
-        <v>0.3359062323987547</v>
+        <v>0.3483445378678418</v>
       </c>
       <c r="F3">
-        <v>0.3102222847576306</v>
+        <v>0.3310457719767695</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1956053612568337</v>
+        <v>0.1568915331285771</v>
       </c>
       <c r="C4">
-        <v>0.2558683862338031</v>
+        <v>0.2900446020859644</v>
       </c>
       <c r="D4">
-        <v>0.08648424928328589</v>
+        <v>0.1128329969643262</v>
       </c>
       <c r="E4">
-        <v>0.2940820451562555</v>
+        <v>0.3359062323987547</v>
       </c>
       <c r="F4">
-        <v>0.2303151560882531</v>
+        <v>0.3102222847576306</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.222511934274951</v>
+        <v>0.1956053612568337</v>
       </c>
       <c r="C5">
-        <v>0.2817985532879059</v>
+        <v>0.2558683862338031</v>
       </c>
       <c r="D5">
-        <v>0.1129743571721927</v>
+        <v>0.08648424928328589</v>
       </c>
       <c r="E5">
-        <v>0.3361165827093223</v>
+        <v>0.2940820451562555</v>
       </c>
       <c r="F5">
-        <v>0.2655451338021729</v>
+        <v>0.2303151560882531</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.176450614684246</v>
+        <v>0.222511934274951</v>
       </c>
       <c r="C6">
-        <v>0.1849112350951672</v>
+        <v>0.2817985532879059</v>
       </c>
       <c r="D6">
-        <v>0.06089664821255769</v>
+        <v>0.1129743571721927</v>
       </c>
       <c r="E6">
-        <v>0.2467724624275523</v>
+        <v>0.3361165827093223</v>
       </c>
       <c r="F6">
-        <v>0.1829810301339271</v>
+        <v>0.2655451338021729</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2112811930113801</v>
+        <v>0.176450614684246</v>
       </c>
       <c r="C7">
-        <v>0.285830133390834</v>
+        <v>0.1849112350951672</v>
       </c>
       <c r="D7">
-        <v>0.1115765264066959</v>
+        <v>0.06089664821255769</v>
       </c>
       <c r="E7">
-        <v>0.3340307267403643</v>
+        <v>0.2467724624275523</v>
       </c>
       <c r="F7">
-        <v>0.2765848542209762</v>
+        <v>0.1829810301339271</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1601567932497119</v>
+        <v>0.2112811930113801</v>
       </c>
       <c r="C8">
-        <v>0.2716627869588349</v>
+        <v>0.285830133390834</v>
       </c>
       <c r="D8">
-        <v>0.08940684574059213</v>
+        <v>0.1115765264066959</v>
       </c>
       <c r="E8">
-        <v>0.2990097753261457</v>
+        <v>0.3340307267403643</v>
       </c>
       <c r="F8">
-        <v>0.2727320208605046</v>
+        <v>0.2765848542209762</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2627214152773011</v>
+        <v>0.1601567932497119</v>
       </c>
       <c r="C9">
-        <v>0.3235434349789264</v>
+        <v>0.2716627869588349</v>
       </c>
       <c r="D9">
-        <v>0.1669924024756296</v>
+        <v>0.08940684574059213</v>
       </c>
       <c r="E9">
-        <v>0.4086470389904099</v>
+        <v>0.2990097753261457</v>
       </c>
       <c r="F9">
-        <v>0.3380801243818421</v>
+        <v>0.2727320208605046</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07165448440387559</v>
+        <v>0.2627214152773011</v>
       </c>
       <c r="C10">
-        <v>0.1716308632352222</v>
+        <v>0.3235434349789264</v>
       </c>
       <c r="D10">
-        <v>0.0355562541576917</v>
+        <v>0.1669924024756296</v>
       </c>
       <c r="E10">
-        <v>0.1885636607559678</v>
+        <v>0.4086470389904099</v>
       </c>
       <c r="F10">
-        <v>0.1950060544653244</v>
+        <v>0.3380801243818421</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08333287966522271</v>
+        <v>0.07165448440387559</v>
       </c>
       <c r="C11">
-        <v>0.2888136092683156</v>
+        <v>0.1716308632352222</v>
       </c>
       <c r="D11">
-        <v>0.1119970241814113</v>
+        <v>0.0355562541576917</v>
       </c>
       <c r="E11">
-        <v>0.3346595646047059</v>
+        <v>0.1885636607559678</v>
       </c>
       <c r="F11">
-        <v>0.3742595451432296</v>
+        <v>0.1950060544653244</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_10_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08298509261913574</v>
+        <v>0.1417620482754679</v>
       </c>
       <c r="C2">
-        <v>0.2782259881569277</v>
+        <v>0.5996277706543274</v>
       </c>
       <c r="D2">
-        <v>0.1147754943926806</v>
+        <v>0.8169135268031753</v>
       </c>
       <c r="E2">
-        <v>0.3387853219852958</v>
+        <v>0.9038326873947276</v>
       </c>
       <c r="F2">
-        <v>0.3408637854649495</v>
+        <v>0.9017087228643812</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1420658796491534</v>
+        <v>0.09584318641535604</v>
       </c>
       <c r="C3">
-        <v>0.2963740997880928</v>
+        <v>0.657502611948801</v>
       </c>
       <c r="D3">
-        <v>0.1213439170623603</v>
+        <v>1.03928723612716</v>
       </c>
       <c r="E3">
-        <v>0.3483445378678418</v>
+        <v>1.019454381582207</v>
       </c>
       <c r="F3">
-        <v>0.3310457719767695</v>
+        <v>1.025456856189602</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1568915331285771</v>
+        <v>0.126342760679196</v>
       </c>
       <c r="C4">
-        <v>0.2900446020859644</v>
+        <v>0.5716138419826224</v>
       </c>
       <c r="D4">
-        <v>0.1128329969643262</v>
+        <v>0.7986488544558821</v>
       </c>
       <c r="E4">
-        <v>0.3359062323987547</v>
+        <v>0.8936715584910835</v>
       </c>
       <c r="F4">
-        <v>0.3102222847576306</v>
+        <v>0.894057751257528</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1956053612568337</v>
+        <v>0.132571133247816</v>
       </c>
       <c r="C5">
-        <v>0.2558683862338031</v>
+        <v>0.6727079862838818</v>
       </c>
       <c r="D5">
-        <v>0.08648424928328589</v>
+        <v>1.180166600671597</v>
       </c>
       <c r="E5">
-        <v>0.2940820451562555</v>
+        <v>1.086354730588309</v>
       </c>
       <c r="F5">
-        <v>0.2303151560882531</v>
+        <v>1.089892299018441</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.222511934274951</v>
+        <v>0.1115124553593621</v>
       </c>
       <c r="C6">
-        <v>0.2817985532879059</v>
+        <v>0.6125314060269084</v>
       </c>
       <c r="D6">
-        <v>0.1129743571721927</v>
+        <v>0.941813663750834</v>
       </c>
       <c r="E6">
-        <v>0.3361165827093223</v>
+        <v>0.9704708464198365</v>
       </c>
       <c r="F6">
-        <v>0.2655451338021729</v>
+        <v>0.9746955907510105</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.176450614684246</v>
+        <v>0.0971729415500782</v>
       </c>
       <c r="C7">
-        <v>0.1849112350951672</v>
+        <v>0.5646146643790109</v>
       </c>
       <c r="D7">
-        <v>0.06089664821255769</v>
+        <v>0.6953729178386839</v>
       </c>
       <c r="E7">
-        <v>0.2467724624275523</v>
+        <v>0.8338902312886775</v>
       </c>
       <c r="F7">
-        <v>0.1829810301339271</v>
+        <v>0.8406640857472294</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2112811930113801</v>
+        <v>0.1456103435239261</v>
       </c>
       <c r="C8">
-        <v>0.285830133390834</v>
+        <v>0.5758738547837706</v>
       </c>
       <c r="D8">
-        <v>0.1115765264066959</v>
+        <v>0.7130976704205472</v>
       </c>
       <c r="E8">
-        <v>0.3340307267403643</v>
+        <v>0.8444511059975865</v>
       </c>
       <c r="F8">
-        <v>0.2765848542209762</v>
+        <v>0.8446993703979081</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1601567932497119</v>
+        <v>-0.01600337040817491</v>
       </c>
       <c r="C9">
-        <v>0.2716627869588349</v>
+        <v>0.5629050319730056</v>
       </c>
       <c r="D9">
-        <v>0.08940684574059213</v>
+        <v>0.5311176513683245</v>
       </c>
       <c r="E9">
-        <v>0.2990097753261457</v>
+        <v>0.7287781907880644</v>
       </c>
       <c r="F9">
-        <v>0.2727320208605046</v>
+        <v>0.7524973840956725</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2627214152773011</v>
+        <v>-0.08801024940629837</v>
       </c>
       <c r="C10">
-        <v>0.3235434349789264</v>
+        <v>0.472497539938865</v>
       </c>
       <c r="D10">
-        <v>0.1669924024756296</v>
+        <v>0.4690803580242086</v>
       </c>
       <c r="E10">
-        <v>0.4086470389904099</v>
+        <v>0.6848944137779257</v>
       </c>
       <c r="F10">
-        <v>0.3380801243818421</v>
+        <v>0.7159566669255664</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07165448440387559</v>
+        <v>0.1495946378431339</v>
       </c>
       <c r="C11">
-        <v>0.1716308632352222</v>
+        <v>0.4169860915672885</v>
       </c>
       <c r="D11">
-        <v>0.0355562541576917</v>
+        <v>0.2389570720534238</v>
       </c>
       <c r="E11">
-        <v>0.1885636607559678</v>
+        <v>0.4888323557759078</v>
       </c>
       <c r="F11">
-        <v>0.1950060544653244</v>
+        <v>0.5203106240290569</v>
       </c>
       <c r="G11">
         <v>5</v>
